--- a/data/trans_orig/P68-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P68-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F231A4C6-C630-4A25-B140-E0B6EF8F8F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B18CC82D-C670-41BE-97B9-6306FB36CDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8127096D-F3F9-4D1B-8CB7-3EEFAB71F5F1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC0F4238-60E4-483C-9F1F-AAC7F547E27E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,1411 +77,1411 @@
     <t>26,15%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
   </si>
   <si>
     <t>20,78%</t>
   </si>
   <si>
-    <t>16,22%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2015 (Tasa respuesta: 35,32%)</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
   </si>
   <si>
     <t>21,07%</t>
   </si>
   <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
   </si>
   <si>
     <t>78,93%</t>
   </si>
   <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2015 (Tasa respuesta: 35,32%)</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
     <t>15,63%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
   </si>
   <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
   </si>
   <si>
     <t>16,03%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
   </si>
   <si>
     <t>84,37%</t>
   </si>
   <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>83,97%</t>
   </si>
   <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
   </si>
   <si>
     <t>24,34%</t>
   </si>
   <si>
-    <t>27,03%</t>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>19,82%</t>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>75,66%</t>
   </si>
   <si>
-    <t>72,97%</t>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>80,18%</t>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BCC62-2045-47E6-951A-52AB8852D0E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90B03E6-3F5E-4D0A-B4CA-B29C1F2B4B6F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2405,7 +2405,7 @@
         <v>641</v>
       </c>
       <c r="N11" s="7">
-        <v>668668</v>
+        <v>668667</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2456,7 +2456,7 @@
         <v>830</v>
       </c>
       <c r="N12" s="7">
-        <v>864738</v>
+        <v>864737</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2962,28 +2962,28 @@
         <v>220121</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>665</v>
       </c>
       <c r="N22" s="7">
-        <v>692426</v>
+        <v>692427</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +2998,13 @@
         <v>1421130</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>763</v>
@@ -3013,13 +3013,13 @@
         <v>801343</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>2127</v>
@@ -3028,13 +3028,13 @@
         <v>2222472</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,7 +3076,7 @@
         <v>2792</v>
       </c>
       <c r="N24" s="7">
-        <v>2914898</v>
+        <v>2914899</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3112,7 +3112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDD3095-465F-459C-9FC5-2AC7887D8C6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3C8A43-69A2-4536-AD2D-A0157B0EB261}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3129,7 +3129,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3236,13 +3236,13 @@
         <v>10327</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -3251,13 +3251,13 @@
         <v>10056</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -3266,13 +3266,13 @@
         <v>20383</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3287,13 @@
         <v>71547</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>76</v>
@@ -3302,13 +3302,13 @@
         <v>77745</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>143</v>
@@ -3317,13 +3317,13 @@
         <v>149292</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3391,13 @@
         <v>86288</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H7" s="7">
         <v>61</v>
@@ -3406,13 +3406,13 @@
         <v>67112</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>144</v>
@@ -3421,13 +3421,13 @@
         <v>153400</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3442,13 @@
         <v>297384</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>197</v>
@@ -3457,13 +3457,13 @@
         <v>210080</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>483</v>
@@ -3472,13 +3472,13 @@
         <v>507464</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3546,13 @@
         <v>99714</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -3561,13 +3561,13 @@
         <v>72631</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>166</v>
@@ -3576,13 +3576,13 @@
         <v>172345</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3597,13 @@
         <v>326438</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>204</v>
@@ -3612,13 +3612,13 @@
         <v>212145</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>517</v>
@@ -3627,13 +3627,13 @@
         <v>538583</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3701,13 @@
         <v>91196</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3716,13 +3716,13 @@
         <v>41446</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -3731,13 +3731,13 @@
         <v>132642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3752,13 @@
         <v>275443</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>157</v>
@@ -3767,13 +3767,13 @@
         <v>184972</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>398</v>
@@ -3782,13 +3782,13 @@
         <v>460416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3856,13 @@
         <v>43927</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -3871,13 +3871,13 @@
         <v>24582</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -3886,13 +3886,13 @@
         <v>68509</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3907,13 @@
         <v>113424</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -3922,13 +3922,13 @@
         <v>45109</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>145</v>
@@ -3937,13 +3937,13 @@
         <v>158532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,7 +4017,7 @@
         <v>111</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4047,7 +4047,7 @@
         <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,7 +4065,7 @@
         <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -4080,7 +4080,7 @@
         <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4095,7 +4095,7 @@
         <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -4166,13 +4166,13 @@
         <v>331452</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H22" s="7">
         <v>198</v>
@@ -4181,13 +4181,13 @@
         <v>215828</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>516</v>
@@ -4196,13 +4196,13 @@
         <v>547279</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4217,13 @@
         <v>1087253</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H23" s="7">
         <v>678</v>
@@ -4232,13 +4232,13 @@
         <v>732888</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M23" s="7">
         <v>1692</v>
@@ -4247,13 +4247,13 @@
         <v>1820141</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,7 +4309,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4331,7 +4331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551D26A8-0839-4A01-8D7C-1A92B4BC0BFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618EE08A-4B44-4C44-BB47-B09D9E67A81E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4348,7 +4348,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4455,13 +4455,13 @@
         <v>17151</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4470,13 +4470,13 @@
         <v>11643</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -4485,13 +4485,13 @@
         <v>28794</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4506,13 @@
         <v>60870</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -4521,13 +4521,13 @@
         <v>80212</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M5" s="7">
         <v>138</v>
@@ -4536,13 +4536,13 @@
         <v>141082</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4610,13 @@
         <v>81572</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -4625,13 +4625,13 @@
         <v>46290</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M7" s="7">
         <v>124</v>
@@ -4640,13 +4640,13 @@
         <v>127863</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4661,13 @@
         <v>260584</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H8" s="7">
         <v>235</v>
@@ -4676,13 +4676,13 @@
         <v>227426</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M8" s="7">
         <v>486</v>
@@ -4691,13 +4691,13 @@
         <v>488010</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4765,13 @@
         <v>113123</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4780,13 +4780,13 @@
         <v>71458</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M10" s="7">
         <v>177</v>
@@ -4795,13 +4795,13 @@
         <v>184581</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>96</v>
+        <v>292</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4816,13 @@
         <v>343829</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>294</v>
+        <v>87</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -4831,13 +4831,13 @@
         <v>244074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M11" s="7">
         <v>575</v>
@@ -4846,13 +4846,13 @@
         <v>587903</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>106</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,13 +4920,13 @@
         <v>91428</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -4935,13 +4935,13 @@
         <v>56107</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M13" s="7">
         <v>132</v>
@@ -4950,10 +4950,10 @@
         <v>147535</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>308</v>
@@ -4992,7 +4992,7 @@
         <v>313</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>417</v>
@@ -5001,13 +5001,13 @@
         <v>458194</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>316</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>317</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5075,13 @@
         <v>44848</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -5090,13 +5090,13 @@
         <v>30799</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -5105,13 +5105,13 @@
         <v>75646</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>322</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5126,13 @@
         <v>118767</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -5141,13 +5141,13 @@
         <v>72841</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M17" s="7">
         <v>166</v>
@@ -5156,13 +5156,13 @@
         <v>191608</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,13 +5230,13 @@
         <v>1879</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5251,7 +5251,7 @@
         <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5260,13 +5260,13 @@
         <v>1880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,10 +5281,10 @@
         <v>4106</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>117</v>
@@ -5299,7 +5299,7 @@
         <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -5311,10 +5311,10 @@
         <v>9296</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>117</v>
@@ -5385,13 +5385,13 @@
         <v>350001</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>345</v>
+        <v>51</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H22" s="7">
         <v>207</v>
@@ -5400,13 +5400,13 @@
         <v>216298</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M22" s="7">
         <v>529</v>
@@ -5415,13 +5415,13 @@
         <v>566299</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5436,13 @@
         <v>1060336</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>355</v>
+        <v>60</v>
       </c>
       <c r="H23" s="7">
         <v>801</v>
@@ -5451,13 +5451,13 @@
         <v>815756</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M23" s="7">
         <v>1791</v>
@@ -5466,13 +5466,13 @@
         <v>1876092</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,7 +5528,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5550,7 +5550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B292DBD4-F56A-423D-AF9E-21E929C9132E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14057B48-B62A-4739-90C2-C1A8C8D1B353}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5567,7 +5567,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5674,13 +5674,13 @@
         <v>6398</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5689,13 +5689,13 @@
         <v>17037</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5704,13 +5704,13 @@
         <v>23435</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5725,13 @@
         <v>76376</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H5" s="7">
         <v>45</v>
@@ -5740,13 +5740,13 @@
         <v>72660</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M5" s="7">
         <v>86</v>
@@ -5755,13 +5755,13 @@
         <v>149036</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5829,13 @@
         <v>58432</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -5844,13 +5844,13 @@
         <v>55897</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M7" s="7">
         <v>90</v>
@@ -5859,13 +5859,13 @@
         <v>114329</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5880,13 @@
         <v>289898</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H8" s="7">
         <v>246</v>
@@ -5895,13 +5895,13 @@
         <v>261927</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M8" s="7">
         <v>451</v>
@@ -5910,13 +5910,13 @@
         <v>551826</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5984,13 @@
         <v>98740</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H10" s="7">
         <v>117</v>
@@ -5999,13 +5999,13 @@
         <v>81050</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>400</v>
+        <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="M10" s="7">
         <v>214</v>
@@ -6014,13 +6014,13 @@
         <v>179790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6035,13 @@
         <v>375714</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H11" s="7">
         <v>424</v>
@@ -6050,13 +6050,13 @@
         <v>291453</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>409</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M11" s="7">
         <v>796</v>
@@ -6065,13 +6065,13 @@
         <v>667167</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6139,13 @@
         <v>114594</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H13" s="7">
         <v>191</v>
@@ -6154,13 +6154,13 @@
         <v>144031</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M13" s="7">
         <v>304</v>
@@ -6169,13 +6169,13 @@
         <v>258626</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6190,13 @@
         <v>456164</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H14" s="7">
         <v>510</v>
@@ -6205,13 +6205,13 @@
         <v>317189</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M14" s="7">
         <v>914</v>
@@ -6220,13 +6220,13 @@
         <v>773352</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,13 +6294,13 @@
         <v>71763</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>428</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H16" s="7">
         <v>102</v>
@@ -6309,13 +6309,13 @@
         <v>60065</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
@@ -6324,13 +6324,13 @@
         <v>131828</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6345,13 @@
         <v>244413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>438</v>
       </c>
       <c r="H17" s="7">
         <v>283</v>
@@ -6360,13 +6360,13 @@
         <v>163940</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M17" s="7">
         <v>558</v>
@@ -6375,13 +6375,13 @@
         <v>408353</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,13 +6449,13 @@
         <v>3090</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -6464,13 +6464,13 @@
         <v>3131</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -6479,13 +6479,13 @@
         <v>6221</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,13 +6500,13 @@
         <v>16683</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -6515,13 +6515,13 @@
         <v>15899</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M20" s="7">
         <v>55</v>
@@ -6530,13 +6530,13 @@
         <v>32582</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,13 +6604,13 @@
         <v>353017</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H22" s="7">
         <v>474</v>
@@ -6619,13 +6619,13 @@
         <v>361211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>467</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M22" s="7">
         <v>812</v>
@@ -6634,13 +6634,13 @@
         <v>714228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>213</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6655,13 @@
         <v>1459248</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H23" s="7">
         <v>1539</v>
@@ -6670,13 +6670,13 @@
         <v>1123068</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M23" s="7">
         <v>2860</v>
@@ -6685,10 +6685,10 @@
         <v>2582316</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>480</v>
@@ -6747,7 +6747,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P68-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P68-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B18CC82D-C670-41BE-97B9-6306FB36CDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA1E738C-9CA4-46CF-8046-980B6F9CADA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC0F4238-60E4-483C-9F1F-AAC7F547E27E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F15F26AF-C1D5-4210-B048-DA9A542B6831}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,28 +77,28 @@
     <t>26,15%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>20,78%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,85%</t>
   </si>
   <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
   </si>
   <si>
     <t>85,93%</t>
   </si>
   <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>79,22%</t>
   </si>
   <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1119 +140,1125 @@
     <t>25,58%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
   </si>
   <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
   </si>
   <si>
     <t>24,75%</t>
   </si>
   <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2016 (Tasa respuesta: 35,32%)</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2015 (Tasa respuesta: 35,32%)</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
     <t>74,47%</t>
   </si>
   <si>
@@ -1289,9 +1295,6 @@
     <t>25,06%</t>
   </si>
   <si>
-    <t>20,91%</t>
-  </si>
-  <si>
     <t>28,32%</t>
   </si>
   <si>
@@ -1317,9 +1320,6 @@
   </si>
   <si>
     <t>71,68%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
   </si>
   <si>
     <t>22,7%</t>
@@ -1893,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90B03E6-3F5E-4D0A-B4CA-B29C1F2B4B6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C785E0D8-4DB0-46B6-B993-5C613A66FDA3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2405,7 +2405,7 @@
         <v>641</v>
       </c>
       <c r="N11" s="7">
-        <v>668667</v>
+        <v>668668</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2456,7 +2456,7 @@
         <v>830</v>
       </c>
       <c r="N12" s="7">
-        <v>864737</v>
+        <v>864738</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2974,16 +2974,16 @@
         <v>665</v>
       </c>
       <c r="N22" s="7">
-        <v>692427</v>
+        <v>692426</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +2998,13 @@
         <v>1421130</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>763</v>
@@ -3013,13 +3013,13 @@
         <v>801343</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>2127</v>
@@ -3028,13 +3028,13 @@
         <v>2222472</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,7 +3076,7 @@
         <v>2792</v>
       </c>
       <c r="N24" s="7">
-        <v>2914899</v>
+        <v>2914898</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3112,7 +3112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3C8A43-69A2-4536-AD2D-A0157B0EB261}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31497BF-3DA0-48DF-8150-C06743BEC016}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3129,7 +3129,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3236,13 +3236,13 @@
         <v>10327</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -3251,13 +3251,13 @@
         <v>10056</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -3266,13 +3266,13 @@
         <v>20383</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3287,13 @@
         <v>71547</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>76</v>
@@ -3302,13 +3302,13 @@
         <v>77745</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>143</v>
@@ -3317,13 +3317,13 @@
         <v>149292</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3391,13 @@
         <v>86288</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H7" s="7">
         <v>61</v>
@@ -3406,13 +3406,13 @@
         <v>67112</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>144</v>
@@ -3421,13 +3421,13 @@
         <v>153400</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3442,13 @@
         <v>297384</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>197</v>
@@ -3457,13 +3457,13 @@
         <v>210080</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>483</v>
@@ -3472,13 +3472,13 @@
         <v>507464</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3546,13 @@
         <v>99714</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -3561,13 +3561,13 @@
         <v>72631</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>166</v>
@@ -3576,13 +3576,13 @@
         <v>172345</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3597,13 @@
         <v>326438</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>204</v>
@@ -3612,13 +3612,13 @@
         <v>212145</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>517</v>
@@ -3627,13 +3627,13 @@
         <v>538583</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3701,13 @@
         <v>91196</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3716,13 +3716,13 @@
         <v>41446</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -3731,13 +3731,13 @@
         <v>132642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3752,13 @@
         <v>275443</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>157</v>
@@ -3767,13 +3767,13 @@
         <v>184972</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>398</v>
@@ -3782,13 +3782,13 @@
         <v>460416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3856,13 @@
         <v>43927</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -3871,13 +3871,13 @@
         <v>24582</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -3886,13 +3886,13 @@
         <v>68509</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3907,13 @@
         <v>113424</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -3922,13 +3922,13 @@
         <v>45109</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>145</v>
@@ -3937,13 +3937,13 @@
         <v>158532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,7 +4017,7 @@
         <v>111</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4047,7 +4047,7 @@
         <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>230</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,7 +4065,7 @@
         <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -4080,7 +4080,7 @@
         <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4095,7 +4095,7 @@
         <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -4166,13 +4166,13 @@
         <v>331452</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H22" s="7">
         <v>198</v>
@@ -4181,13 +4181,13 @@
         <v>215828</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M22" s="7">
         <v>516</v>
@@ -4196,13 +4196,13 @@
         <v>547279</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4217,13 @@
         <v>1087253</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H23" s="7">
         <v>678</v>
@@ -4232,13 +4232,13 @@
         <v>732888</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M23" s="7">
         <v>1692</v>
@@ -4247,13 +4247,13 @@
         <v>1820141</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,7 +4309,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4331,7 +4331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618EE08A-4B44-4C44-BB47-B09D9E67A81E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE25FB72-CCC6-472F-A4D3-77FC8E7AB651}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4348,7 +4348,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4455,13 +4455,13 @@
         <v>17151</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4470,13 +4470,13 @@
         <v>11643</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -4485,13 +4485,13 @@
         <v>28794</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4506,13 @@
         <v>60870</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -4521,13 +4521,13 @@
         <v>80212</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M5" s="7">
         <v>138</v>
@@ -4536,13 +4536,13 @@
         <v>141082</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4610,13 @@
         <v>81572</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -4625,13 +4625,13 @@
         <v>46290</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>124</v>
@@ -4640,13 +4640,13 @@
         <v>127863</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4661,13 @@
         <v>260584</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H8" s="7">
         <v>235</v>
@@ -4676,13 +4676,13 @@
         <v>227426</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="M8" s="7">
         <v>486</v>
@@ -4691,13 +4691,13 @@
         <v>488010</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4765,13 @@
         <v>113123</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4780,13 +4780,13 @@
         <v>71458</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>289</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>177</v>
@@ -4795,13 +4795,13 @@
         <v>184581</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4816,13 @@
         <v>343829</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>87</v>
+        <v>288</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -4831,13 +4831,13 @@
         <v>244074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>575</v>
@@ -4846,13 +4846,13 @@
         <v>587903</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,13 +4920,13 @@
         <v>91428</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -4935,13 +4935,13 @@
         <v>56107</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M13" s="7">
         <v>132</v>
@@ -4950,13 +4950,13 @@
         <v>147535</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +4971,13 @@
         <v>272180</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>172</v>
@@ -4986,13 +4986,13 @@
         <v>186014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>417</v>
@@ -5001,13 +5001,13 @@
         <v>458194</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5075,13 @@
         <v>44848</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>317</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -5090,13 +5090,13 @@
         <v>30799</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -5105,13 +5105,13 @@
         <v>75646</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5126,13 @@
         <v>118767</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>326</v>
+        <v>27</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -5141,13 +5141,13 @@
         <v>72841</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>166</v>
@@ -5156,13 +5156,13 @@
         <v>191608</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,13 +5230,13 @@
         <v>1879</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5251,7 +5251,7 @@
         <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5260,13 +5260,13 @@
         <v>1880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,10 +5281,10 @@
         <v>4106</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>117</v>
@@ -5299,7 +5299,7 @@
         <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -5311,10 +5311,10 @@
         <v>9296</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>117</v>
@@ -5385,13 +5385,13 @@
         <v>350001</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>51</v>
+        <v>339</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H22" s="7">
         <v>207</v>
@@ -5400,13 +5400,13 @@
         <v>216298</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M22" s="7">
         <v>529</v>
@@ -5415,13 +5415,13 @@
         <v>566299</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5436,13 @@
         <v>1060336</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H23" s="7">
         <v>801</v>
@@ -5451,7 +5451,7 @@
         <v>815756</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>351</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5550,7 +5550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14057B48-B62A-4739-90C2-C1A8C8D1B353}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967A7A6B-7516-4B9E-BC08-4E53C78F4A7A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5999,13 +5999,13 @@
         <v>81050</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>396</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M10" s="7">
         <v>214</v>
@@ -6014,13 +6014,13 @@
         <v>179790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6035,13 @@
         <v>375714</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H11" s="7">
         <v>424</v>
@@ -6050,13 +6050,13 @@
         <v>291453</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>405</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M11" s="7">
         <v>796</v>
@@ -6065,13 +6065,13 @@
         <v>667167</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6139,13 @@
         <v>114594</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H13" s="7">
         <v>191</v>
@@ -6154,13 +6154,13 @@
         <v>144031</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M13" s="7">
         <v>304</v>
@@ -6169,13 +6169,13 @@
         <v>258626</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>416</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6190,13 @@
         <v>456164</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H14" s="7">
         <v>510</v>
@@ -6205,13 +6205,13 @@
         <v>317189</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M14" s="7">
         <v>914</v>
@@ -6220,13 +6220,13 @@
         <v>773352</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>426</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6747,7 +6747,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P68-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P68-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA1E738C-9CA4-46CF-8046-980B6F9CADA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBE29EAC-8C65-47A2-941B-9EF1D2CC1A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F15F26AF-C1D5-4210-B048-DA9A542B6831}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{77AB5B5C-1E47-47B4-BC45-2325EFC50471}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,34 +71,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>26,15%</t>
   </si>
   <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
   <si>
     <t>20,78%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,85%</t>
   </si>
   <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>85,93%</t>
   </si>
   <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>79,22%</t>
   </si>
   <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>25,58%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
   </si>
   <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
   </si>
   <si>
     <t>24,75%</t>
   </si>
   <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
   </si>
   <si>
     <t>74,42%</t>
   </si>
   <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
   </si>
   <si>
     <t>76,61%</t>
   </si>
   <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
   </si>
   <si>
     <t>75,25%</t>
   </si>
   <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>22,5%</t>
   </si>
   <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
   </si>
   <si>
     <t>23,0%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
   </si>
   <si>
     <t>22,67%</t>
   </si>
   <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
   </si>
   <si>
     <t>77,5%</t>
   </si>
   <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
   </si>
   <si>
     <t>77,0%</t>
   </si>
   <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
   </si>
   <si>
     <t>77,33%</t>
   </si>
   <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,1234 +254,1234 @@
     <t>25,71%</t>
   </si>
   <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2016 (Tasa respuesta: 35,32%)</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>78,57%</t>
   </si>
   <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2016 (Tasa respuesta: 35,32%)</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
     <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
   </si>
   <si>
     <t>18,99%</t>
   </si>
   <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
   </si>
   <si>
     <t>13,59%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>81,01%</t>
   </si>
   <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
   </si>
   <si>
     <t>86,41%</t>
   </si>
   <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
+    <t>13,72%</t>
   </si>
   <si>
     <t>83,23%</t>
   </si>
   <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
   </si>
   <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
   </si>
   <si>
     <t>82,84%</t>
   </si>
   <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>86,28%</t>
   </si>
   <si>
     <t>20,81%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
   </si>
   <si>
     <t>21,23%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
   </si>
   <si>
     <t>79,19%</t>
   </si>
   <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
   </si>
   <si>
     <t>78,77%</t>
   </si>
   <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
   </si>
   <si>
     <t>20,08%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
   </si>
   <si>
     <t>31,23%</t>
   </si>
   <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
   </si>
   <si>
     <t>25,06%</t>
   </si>
   <si>
-    <t>28,32%</t>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
   </si>
   <si>
     <t>79,92%</t>
   </si>
   <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
   </si>
   <si>
     <t>68,77%</t>
   </si>
   <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
   </si>
   <si>
     <t>74,94%</t>
   </si>
   <si>
-    <t>71,68%</t>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
+    <t>27,36%</t>
   </si>
   <si>
     <t>26,81%</t>
   </si>
   <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>24,4%</t>
   </si>
   <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
   </si>
   <si>
     <t>77,3%</t>
   </si>
   <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
+    <t>72,64%</t>
   </si>
   <si>
     <t>73,19%</t>
   </si>
   <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>75,6%</t>
   </si>
   <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
   </si>
   <si>
     <t>15,63%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
   </si>
   <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
   </si>
   <si>
     <t>16,03%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
   </si>
   <si>
     <t>84,37%</t>
   </si>
   <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
   </si>
   <si>
     <t>83,97%</t>
   </si>
   <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>24,34%</t>
   </si>
   <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>27,03%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>19,82%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
   </si>
   <si>
     <t>75,66%</t>
   </si>
   <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
+    <t>72,97%</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
+    <t>80,18%</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C785E0D8-4DB0-46B6-B993-5C613A66FDA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FBF32F-0209-48D6-8F52-223FD88CB0AA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2962,13 +2962,13 @@
         <v>220121</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>665</v>
@@ -2977,10 +2977,10 @@
         <v>692426</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>128</v>
@@ -3013,13 +3013,13 @@
         <v>801343</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>2127</v>
@@ -3028,13 +3028,13 @@
         <v>2222472</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,7 +3112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31497BF-3DA0-48DF-8150-C06743BEC016}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A0A8C-EB41-4F61-B780-66B13A22D179}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3564,10 +3564,10 @@
         <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>166</v>
@@ -3576,13 +3576,13 @@
         <v>172345</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3597,13 @@
         <v>326438</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H11" s="7">
         <v>204</v>
@@ -3612,13 +3612,13 @@
         <v>212145</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="M11" s="7">
         <v>517</v>
@@ -3627,13 +3627,13 @@
         <v>538583</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3701,13 @@
         <v>91196</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3716,13 +3716,13 @@
         <v>41446</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -3731,13 +3731,13 @@
         <v>132642</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,10 +3755,10 @@
         <v>200</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H14" s="7">
         <v>157</v>
@@ -3767,13 +3767,13 @@
         <v>184972</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M14" s="7">
         <v>398</v>
@@ -3782,13 +3782,13 @@
         <v>460416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3856,13 @@
         <v>43927</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -3871,13 +3871,13 @@
         <v>24582</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -3886,13 +3886,13 @@
         <v>68509</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3907,13 @@
         <v>113424</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -3922,13 +3922,13 @@
         <v>45109</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M17" s="7">
         <v>145</v>
@@ -3937,13 +3937,13 @@
         <v>158532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,7 +4017,7 @@
         <v>111</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4047,7 +4047,7 @@
         <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,7 +4065,7 @@
         <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -4080,7 +4080,7 @@
         <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4095,7 +4095,7 @@
         <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -4166,13 +4166,13 @@
         <v>331452</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H22" s="7">
         <v>198</v>
@@ -4181,13 +4181,13 @@
         <v>215828</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M22" s="7">
         <v>516</v>
@@ -4196,13 +4196,13 @@
         <v>547279</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4217,13 @@
         <v>1087253</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H23" s="7">
         <v>678</v>
@@ -4232,13 +4232,13 @@
         <v>732888</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M23" s="7">
         <v>1692</v>
@@ -4247,13 +4247,13 @@
         <v>1820141</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,7 +4331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE25FB72-CCC6-472F-A4D3-77FC8E7AB651}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C68CB71-DB7B-472B-A100-E17C5749E347}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4348,7 +4348,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4455,13 +4455,13 @@
         <v>17151</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4470,13 +4470,13 @@
         <v>11643</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -4485,13 +4485,13 @@
         <v>28794</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4506,13 @@
         <v>60870</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -4521,13 +4521,13 @@
         <v>80212</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M5" s="7">
         <v>138</v>
@@ -4536,13 +4536,13 @@
         <v>141082</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4610,13 @@
         <v>81572</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -4625,13 +4625,13 @@
         <v>46290</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="M7" s="7">
         <v>124</v>
@@ -4640,13 +4640,13 @@
         <v>127863</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4661,13 @@
         <v>260584</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H8" s="7">
         <v>235</v>
@@ -4676,13 +4676,13 @@
         <v>227426</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M8" s="7">
         <v>486</v>
@@ -4691,13 +4691,13 @@
         <v>488010</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4765,13 @@
         <v>113123</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4780,13 +4780,13 @@
         <v>71458</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>288</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>177</v>
@@ -4795,13 +4795,13 @@
         <v>184581</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>284</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4816,13 @@
         <v>343829</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -4831,13 +4831,13 @@
         <v>244074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>297</v>
       </c>
       <c r="M11" s="7">
         <v>575</v>
@@ -4846,13 +4846,13 @@
         <v>587903</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>293</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,13 +4920,13 @@
         <v>91428</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -4935,13 +4935,13 @@
         <v>56107</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M13" s="7">
         <v>132</v>
@@ -4950,13 +4950,13 @@
         <v>147535</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +4971,13 @@
         <v>272180</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H14" s="7">
         <v>172</v>
@@ -4986,13 +4986,13 @@
         <v>186014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M14" s="7">
         <v>417</v>
@@ -5001,13 +5001,13 @@
         <v>458194</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5075,13 @@
         <v>44848</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>319</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -5090,13 +5090,13 @@
         <v>30799</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -5105,13 +5105,13 @@
         <v>75646</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>318</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5126,13 @@
         <v>118767</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>328</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -5141,13 +5141,13 @@
         <v>72841</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M17" s="7">
         <v>166</v>
@@ -5156,13 +5156,13 @@
         <v>191608</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,13 +5230,13 @@
         <v>1879</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5251,7 +5251,7 @@
         <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5260,13 +5260,13 @@
         <v>1880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,10 +5281,10 @@
         <v>4106</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>117</v>
@@ -5299,7 +5299,7 @@
         <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -5311,10 +5311,10 @@
         <v>9296</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>117</v>
@@ -5385,13 +5385,13 @@
         <v>350001</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H22" s="7">
         <v>207</v>
@@ -5400,13 +5400,13 @@
         <v>216298</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M22" s="7">
         <v>529</v>
@@ -5415,13 +5415,13 @@
         <v>566299</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5436,13 @@
         <v>1060336</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H23" s="7">
         <v>801</v>
@@ -5451,13 +5451,13 @@
         <v>815756</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M23" s="7">
         <v>1791</v>
@@ -5466,13 +5466,13 @@
         <v>1876092</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,7 +5550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967A7A6B-7516-4B9E-BC08-4E53C78F4A7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817BD1B2-29EE-4CFC-A5C0-CEA94F991252}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5567,7 +5567,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5674,13 +5674,13 @@
         <v>6398</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5689,13 +5689,13 @@
         <v>17037</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5704,13 +5704,13 @@
         <v>23435</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5725,13 @@
         <v>76376</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H5" s="7">
         <v>45</v>
@@ -5740,13 +5740,13 @@
         <v>72660</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="M5" s="7">
         <v>86</v>
@@ -5755,13 +5755,13 @@
         <v>149036</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5829,13 @@
         <v>58432</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -5844,13 +5844,13 @@
         <v>55897</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="M7" s="7">
         <v>90</v>
@@ -5859,13 +5859,13 @@
         <v>114329</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5880,13 @@
         <v>289898</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H8" s="7">
         <v>246</v>
@@ -5895,13 +5895,13 @@
         <v>261927</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="M8" s="7">
         <v>451</v>
@@ -5910,13 +5910,13 @@
         <v>551826</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5984,13 @@
         <v>98740</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H10" s="7">
         <v>117</v>
@@ -5999,13 +5999,13 @@
         <v>81050</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M10" s="7">
         <v>214</v>
@@ -6014,13 +6014,13 @@
         <v>179790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6035,13 @@
         <v>375714</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H11" s="7">
         <v>424</v>
@@ -6050,13 +6050,13 @@
         <v>291453</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M11" s="7">
         <v>796</v>
@@ -6065,13 +6065,13 @@
         <v>667167</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6139,13 @@
         <v>114594</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H13" s="7">
         <v>191</v>
@@ -6154,13 +6154,13 @@
         <v>144031</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M13" s="7">
         <v>304</v>
@@ -6169,13 +6169,13 @@
         <v>258626</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>422</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6190,13 @@
         <v>456164</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="H14" s="7">
         <v>510</v>
@@ -6205,13 +6205,13 @@
         <v>317189</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="M14" s="7">
         <v>914</v>
@@ -6220,13 +6220,13 @@
         <v>773352</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,13 +6294,13 @@
         <v>71763</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>428</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="H16" s="7">
         <v>102</v>
@@ -6309,13 +6309,13 @@
         <v>60065</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
@@ -6324,13 +6324,13 @@
         <v>131828</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6345,13 @@
         <v>244413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>438</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>283</v>
@@ -6360,13 +6360,13 @@
         <v>163940</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="M17" s="7">
         <v>558</v>
@@ -6375,13 +6375,13 @@
         <v>408353</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,13 +6449,13 @@
         <v>3090</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -6464,13 +6464,13 @@
         <v>3131</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -6479,13 +6479,13 @@
         <v>6221</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,13 +6500,13 @@
         <v>16683</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -6515,13 +6515,13 @@
         <v>15899</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M20" s="7">
         <v>55</v>
@@ -6530,13 +6530,13 @@
         <v>32582</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,13 +6604,13 @@
         <v>353017</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H22" s="7">
         <v>474</v>
@@ -6619,13 +6619,13 @@
         <v>361211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>467</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M22" s="7">
         <v>812</v>
@@ -6634,13 +6634,13 @@
         <v>714228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>471</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6655,13 @@
         <v>1459248</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H23" s="7">
         <v>1539</v>
@@ -6670,13 +6670,13 @@
         <v>1123068</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>477</v>
+        <v>257</v>
       </c>
       <c r="M23" s="7">
         <v>2860</v>
@@ -6685,10 +6685,10 @@
         <v>2582316</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>479</v>
+        <v>223</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>480</v>

--- a/data/trans_orig/P68-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P68-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBE29EAC-8C65-47A2-941B-9EF1D2CC1A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2618F914-EEC2-4994-9864-6EFA82F51BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{77AB5B5C-1E47-47B4-BC45-2325EFC50471}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CE05F232-DFA3-4DAC-A375-B9FD533FCB92}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="481">
   <si>
     <t>Población según si piensan que su trabajo les afecta negativamente en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>25,58%</t>
@@ -191,7 +191,7 @@
     <t>77,95%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>22,5%</t>
@@ -248,7 +248,7 @@
     <t>79,95%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>25,71%</t>
@@ -305,7 +305,7 @@
     <t>78,68%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>28,12%</t>
@@ -362,46 +362,46 @@
     <t>79,17%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>67,35%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
+    <t>56,93%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
+    <t>26,42%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
+    <t>43,07%</t>
+  </si>
+  <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
   </si>
   <si>
     <t>24,94%</t>
@@ -725,15 +725,9 @@
     <t>44,41%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>73,58%</t>
-  </si>
-  <si>
     <t>21,07%</t>
   </si>
   <si>
@@ -1043,445 +1037,451 @@
     <t>65,77%</t>
   </si>
   <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>36,21%</t>
   </si>
   <si>
     <t>30,57%</t>
   </si>
   <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>83,18%</t>
   </si>
   <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
   </si>
 </sst>
 </file>
@@ -1893,8 +1893,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FBF32F-0209-48D6-8F52-223FD88CB0AA}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC23C2C4-16AA-47DA-B618-635CB8785598}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2405,7 +2405,7 @@
         <v>641</v>
       </c>
       <c r="N11" s="7">
-        <v>668668</v>
+        <v>668667</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2456,7 +2456,7 @@
         <v>830</v>
       </c>
       <c r="N12" s="7">
-        <v>864738</v>
+        <v>864737</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2786,10 +2786,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2807,28 +2807,28 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,19 +2837,19 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>4217</v>
+        <v>2568</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -2858,28 +2858,28 @@
         <v>3621</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N20" s="7">
-        <v>7838</v>
+        <v>6188</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,10 +2888,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2918,10 +2918,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N21" s="7">
-        <v>8659</v>
+        <v>6188</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2935,55 +2935,53 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>472305</v>
+        <v>821</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
-        <v>215</v>
-      </c>
-      <c r="I22" s="7">
-        <v>220121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
-        <v>665</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>692426</v>
+        <v>821</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,49 +2990,47 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1364</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>1421130</v>
+        <v>1650</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="H23" s="7">
-        <v>763</v>
-      </c>
-      <c r="I23" s="7">
-        <v>801343</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
-        <v>2127</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>2222472</v>
+        <v>1650</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,63 +3039,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" s="7">
+        <v>3</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>450</v>
+      </c>
+      <c r="D25" s="7">
+        <v>472305</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="7">
+        <v>215</v>
+      </c>
+      <c r="I25" s="7">
+        <v>220121</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M25" s="7">
+        <v>665</v>
+      </c>
+      <c r="N25" s="7">
+        <v>692427</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1364</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1421130</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="7">
+        <v>763</v>
+      </c>
+      <c r="I26" s="7">
+        <v>801343</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2127</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2222472</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1814</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1893435</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>978</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1021464</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2792</v>
       </c>
-      <c r="N24" s="7">
-        <v>2914898</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="N27" s="7">
+        <v>2914899</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3112,8 +3262,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A0A8C-EB41-4F61-B780-66B13A22D179}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A58DF9-C3CB-4205-A930-7551F2DCC917}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3779,7 +3929,7 @@
         <v>398</v>
       </c>
       <c r="N14" s="7">
-        <v>460416</v>
+        <v>460415</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>206</v>
@@ -3830,7 +3980,7 @@
         <v>519</v>
       </c>
       <c r="N15" s="7">
-        <v>593058</v>
+        <v>593057</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4011,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>227</v>
@@ -4026,10 +4176,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>227</v>
@@ -4041,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,10 +4212,10 @@
         <v>3016</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -4077,10 +4227,10 @@
         <v>2838</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4092,10 +4242,10 @@
         <v>5854</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -4154,55 +4304,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>318</v>
-      </c>
-      <c r="D22" s="7">
-        <v>331452</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
-        <v>198</v>
-      </c>
-      <c r="I22" s="7">
-        <v>215828</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
-        <v>516</v>
-      </c>
-      <c r="N22" s="7">
-        <v>547279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>238</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,49 +4355,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1014</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1087253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>240</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7">
-        <v>678</v>
-      </c>
-      <c r="I23" s="7">
-        <v>732888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>241</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>242</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>243</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
-        <v>1692</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1820141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>244</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>245</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,63 +4400,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>318</v>
+      </c>
+      <c r="D25" s="7">
+        <v>331452</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H25" s="7">
+        <v>198</v>
+      </c>
+      <c r="I25" s="7">
+        <v>215828</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" s="7">
+        <v>516</v>
+      </c>
+      <c r="N25" s="7">
+        <v>547280</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1014</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1087253</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H26" s="7">
+        <v>678</v>
+      </c>
+      <c r="I26" s="7">
+        <v>732888</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1692</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1820141</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1332</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1418705</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>876</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>948716</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2208</v>
       </c>
-      <c r="N24" s="7">
-        <v>2367420</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="N27" s="7">
+        <v>2367421</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4331,8 +4619,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C68CB71-DB7B-472B-A100-E17C5749E347}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561952C5-105F-4ECE-82B9-8707EB37203A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4348,7 +4636,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4455,13 +4743,13 @@
         <v>17151</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4470,13 +4758,13 @@
         <v>11643</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -4485,13 +4773,13 @@
         <v>28794</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4794,13 @@
         <v>60870</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -4521,13 +4809,13 @@
         <v>80212</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M5" s="7">
         <v>138</v>
@@ -4536,13 +4824,13 @@
         <v>141082</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4898,13 @@
         <v>81572</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -4625,13 +4913,13 @@
         <v>46290</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M7" s="7">
         <v>124</v>
@@ -4640,13 +4928,13 @@
         <v>127863</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4949,13 @@
         <v>260584</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H8" s="7">
         <v>235</v>
@@ -4676,13 +4964,13 @@
         <v>227426</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M8" s="7">
         <v>486</v>
@@ -4691,13 +4979,13 @@
         <v>488010</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +5053,13 @@
         <v>113123</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4780,13 +5068,13 @@
         <v>71458</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>177</v>
@@ -4795,13 +5083,13 @@
         <v>184581</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>96</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +5104,13 @@
         <v>343829</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -4831,13 +5119,13 @@
         <v>244074</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M11" s="7">
         <v>575</v>
@@ -4846,10 +5134,10 @@
         <v>587903</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>106</v>
@@ -4920,13 +5208,13 @@
         <v>91428</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -4935,13 +5223,13 @@
         <v>56107</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M13" s="7">
         <v>132</v>
@@ -4950,13 +5238,13 @@
         <v>147535</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +5259,13 @@
         <v>272180</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H14" s="7">
         <v>172</v>
@@ -4986,13 +5274,13 @@
         <v>186014</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M14" s="7">
         <v>417</v>
@@ -5001,13 +5289,13 @@
         <v>458194</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5363,13 @@
         <v>44848</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -5090,13 +5378,13 @@
         <v>30799</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -5105,13 +5393,13 @@
         <v>75646</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5414,13 @@
         <v>118767</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -5141,13 +5429,13 @@
         <v>72841</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M17" s="7">
         <v>166</v>
@@ -5156,10 +5444,10 @@
         <v>191608</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>206</v>
@@ -5230,13 +5518,13 @@
         <v>1879</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5245,13 +5533,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5260,13 +5548,13 @@
         <v>1880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,19 +5563,19 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>4106</v>
+        <v>3311</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -5296,28 +5584,28 @@
         <v>5190</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N20" s="7">
-        <v>9296</v>
+        <v>8501</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,10 +5614,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5356,10 +5644,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N21" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5373,55 +5661,53 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>350001</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>344</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>345</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H22" s="7">
-        <v>207</v>
-      </c>
-      <c r="I22" s="7">
-        <v>216298</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>347</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>348</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>349</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>566299</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>350</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>351</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,49 +5716,47 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>990</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>1060336</v>
+        <v>795</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>353</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>355</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
-        <v>801</v>
-      </c>
-      <c r="I23" s="7">
-        <v>815756</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>356</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>357</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>358</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
-        <v>1791</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>1876092</v>
+        <v>795</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>359</v>
+        <v>113</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>361</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,63 +5765,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>795</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>795</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>322</v>
+      </c>
+      <c r="D25" s="7">
+        <v>350001</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H25" s="7">
+        <v>207</v>
+      </c>
+      <c r="I25" s="7">
+        <v>216298</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M25" s="7">
+        <v>529</v>
+      </c>
+      <c r="N25" s="7">
+        <v>566299</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>990</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1060336</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H26" s="7">
+        <v>801</v>
+      </c>
+      <c r="I26" s="7">
+        <v>815756</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1791</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1876092</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1312</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1410337</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1008</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1032054</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2320</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2442391</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5550,8 +5988,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817BD1B2-29EE-4CFC-A5C0-CEA94F991252}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582FE3F5-820D-4F5A-B191-9DADA6E87576}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5567,7 +6005,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5671,46 +6109,46 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>6398</v>
+        <v>5989</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>17037</v>
+        <v>15344</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>23435</v>
+        <v>21333</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,46 +6160,46 @@
         <v>41</v>
       </c>
       <c r="D5" s="7">
-        <v>76376</v>
+        <v>78085</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H5" s="7">
         <v>45</v>
       </c>
       <c r="I5" s="7">
-        <v>72660</v>
+        <v>64133</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M5" s="7">
         <v>86</v>
       </c>
       <c r="N5" s="7">
-        <v>149036</v>
+        <v>142217</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,7 +6211,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="7">
-        <v>82774</v>
+        <v>84074</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5788,7 +6226,7 @@
         <v>55</v>
       </c>
       <c r="I6" s="7">
-        <v>89697</v>
+        <v>79477</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5803,7 +6241,7 @@
         <v>100</v>
       </c>
       <c r="N6" s="7">
-        <v>172471</v>
+        <v>163550</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5826,46 +6264,46 @@
         <v>42</v>
       </c>
       <c r="D7" s="7">
-        <v>58432</v>
+        <v>59074</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>55897</v>
+        <v>49949</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M7" s="7">
         <v>90</v>
       </c>
       <c r="N7" s="7">
-        <v>114329</v>
+        <v>109022</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,43 +6315,43 @@
         <v>205</v>
       </c>
       <c r="D8" s="7">
-        <v>289898</v>
+        <v>284869</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H8" s="7">
         <v>246</v>
       </c>
       <c r="I8" s="7">
-        <v>261927</v>
+        <v>296173</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M8" s="7">
         <v>451</v>
       </c>
       <c r="N8" s="7">
-        <v>551826</v>
+        <v>581043</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>396</v>
@@ -5928,7 +6366,7 @@
         <v>247</v>
       </c>
       <c r="D9" s="7">
-        <v>348330</v>
+        <v>343943</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5943,7 +6381,7 @@
         <v>294</v>
       </c>
       <c r="I9" s="7">
-        <v>317824</v>
+        <v>346122</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5958,7 +6396,7 @@
         <v>541</v>
       </c>
       <c r="N9" s="7">
-        <v>666155</v>
+        <v>690065</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5981,7 +6419,7 @@
         <v>97</v>
       </c>
       <c r="D10" s="7">
-        <v>98740</v>
+        <v>95531</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>397</v>
@@ -5996,7 +6434,7 @@
         <v>117</v>
       </c>
       <c r="I10" s="7">
-        <v>81050</v>
+        <v>75552</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>400</v>
@@ -6011,7 +6449,7 @@
         <v>214</v>
       </c>
       <c r="N10" s="7">
-        <v>179790</v>
+        <v>171084</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>403</v>
@@ -6032,7 +6470,7 @@
         <v>372</v>
       </c>
       <c r="D11" s="7">
-        <v>375714</v>
+        <v>361374</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>406</v>
@@ -6047,7 +6485,7 @@
         <v>424</v>
       </c>
       <c r="I11" s="7">
-        <v>291453</v>
+        <v>271588</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>409</v>
@@ -6062,7 +6500,7 @@
         <v>796</v>
       </c>
       <c r="N11" s="7">
-        <v>667167</v>
+        <v>632961</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>412</v>
@@ -6083,7 +6521,7 @@
         <v>469</v>
       </c>
       <c r="D12" s="7">
-        <v>474454</v>
+        <v>456905</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6098,7 +6536,7 @@
         <v>541</v>
       </c>
       <c r="I12" s="7">
-        <v>372503</v>
+        <v>347140</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6113,7 +6551,7 @@
         <v>1010</v>
       </c>
       <c r="N12" s="7">
-        <v>846957</v>
+        <v>804045</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6136,7 +6574,7 @@
         <v>113</v>
       </c>
       <c r="D13" s="7">
-        <v>114594</v>
+        <v>108553</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>415</v>
@@ -6151,7 +6589,7 @@
         <v>191</v>
       </c>
       <c r="I13" s="7">
-        <v>144031</v>
+        <v>154949</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>418</v>
@@ -6166,7 +6604,7 @@
         <v>304</v>
       </c>
       <c r="N13" s="7">
-        <v>258626</v>
+        <v>263502</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>421</v>
@@ -6187,7 +6625,7 @@
         <v>404</v>
       </c>
       <c r="D14" s="7">
-        <v>456164</v>
+        <v>633072</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>424</v>
@@ -6202,7 +6640,7 @@
         <v>510</v>
       </c>
       <c r="I14" s="7">
-        <v>317189</v>
+        <v>293811</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>427</v>
@@ -6217,7 +6655,7 @@
         <v>914</v>
       </c>
       <c r="N14" s="7">
-        <v>773352</v>
+        <v>926883</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>430</v>
@@ -6238,7 +6676,7 @@
         <v>517</v>
       </c>
       <c r="D15" s="7">
-        <v>570758</v>
+        <v>741625</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6253,7 +6691,7 @@
         <v>701</v>
       </c>
       <c r="I15" s="7">
-        <v>461220</v>
+        <v>448760</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6268,7 +6706,7 @@
         <v>1218</v>
       </c>
       <c r="N15" s="7">
-        <v>1031978</v>
+        <v>1190385</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6291,28 +6729,28 @@
         <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>71763</v>
+        <v>67436</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>433</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>434</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H16" s="7">
         <v>102</v>
       </c>
       <c r="I16" s="7">
-        <v>60065</v>
+        <v>55507</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>436</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>437</v>
@@ -6321,7 +6759,7 @@
         <v>179</v>
       </c>
       <c r="N16" s="7">
-        <v>131828</v>
+        <v>122943</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>438</v>
@@ -6342,7 +6780,7 @@
         <v>275</v>
       </c>
       <c r="D17" s="7">
-        <v>244413</v>
+        <v>228404</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>441</v>
@@ -6351,28 +6789,28 @@
         <v>442</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>443</v>
       </c>
       <c r="H17" s="7">
         <v>283</v>
       </c>
       <c r="I17" s="7">
-        <v>163940</v>
+        <v>150579</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>445</v>
+        <v>340</v>
       </c>
       <c r="M17" s="7">
         <v>558</v>
       </c>
       <c r="N17" s="7">
-        <v>408353</v>
+        <v>378983</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>446</v>
@@ -6393,7 +6831,7 @@
         <v>352</v>
       </c>
       <c r="D18" s="7">
-        <v>316176</v>
+        <v>295840</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6408,7 +6846,7 @@
         <v>385</v>
       </c>
       <c r="I18" s="7">
-        <v>224005</v>
+        <v>206086</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6423,7 +6861,7 @@
         <v>737</v>
       </c>
       <c r="N18" s="7">
-        <v>540181</v>
+        <v>501926</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6446,7 +6884,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>3090</v>
+        <v>2923</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>449</v>
@@ -6461,7 +6899,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>3131</v>
+        <v>2913</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>452</v>
@@ -6476,7 +6914,7 @@
         <v>11</v>
       </c>
       <c r="N19" s="7">
-        <v>6221</v>
+        <v>5836</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>455</v>
@@ -6494,10 +6932,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="7">
-        <v>16683</v>
+        <v>14020</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>458</v>
@@ -6512,7 +6950,7 @@
         <v>31</v>
       </c>
       <c r="I20" s="7">
-        <v>15899</v>
+        <v>14838</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>461</v>
@@ -6524,10 +6962,10 @@
         <v>463</v>
       </c>
       <c r="M20" s="7">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N20" s="7">
-        <v>32582</v>
+        <v>28858</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>464</v>
@@ -6545,10 +6983,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="7">
-        <v>19773</v>
+        <v>16943</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6563,7 +7001,7 @@
         <v>37</v>
       </c>
       <c r="I21" s="7">
-        <v>19030</v>
+        <v>17751</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6575,10 +7013,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N21" s="7">
-        <v>38803</v>
+        <v>34694</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6592,55 +7030,53 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>353017</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>467</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>468</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>469</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
-        <v>474</v>
-      </c>
-      <c r="I22" s="7">
-        <v>361211</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>470</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>471</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>714228</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>472</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>473</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,49 +7085,47 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1321</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>1459248</v>
+        <v>1598</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>474</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>475</v>
+        <v>114</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>476</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
-        <v>1539</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1123068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>477</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>478</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>257</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
-        <v>2860</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>2582316</v>
+        <v>1598</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>479</v>
+        <v>113</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>480</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,63 +7134,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1598</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" s="7">
+        <v>2</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1598</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>338</v>
+      </c>
+      <c r="D25" s="7">
+        <v>339505</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="H25" s="7">
+        <v>474</v>
+      </c>
+      <c r="I25" s="7">
+        <v>354215</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="M25" s="7">
+        <v>812</v>
+      </c>
+      <c r="N25" s="7">
+        <v>693720</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1321</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1601423</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1539</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1091121</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2860</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2692544</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1659</v>
       </c>
-      <c r="D24" s="7">
-        <v>1812265</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1940928</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2013</v>
       </c>
-      <c r="I24" s="7">
-        <v>1484279</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1445336</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>3672</v>
       </c>
-      <c r="N24" s="7">
-        <v>3296544</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="N27" s="7">
+        <v>3386264</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
